--- a/biology/Médecine/Johann_Friedrich_Zückert/Johann_Friedrich_Zückert.xlsx
+++ b/biology/Médecine/Johann_Friedrich_Zückert/Johann_Friedrich_Zückert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Johann_Friedrich_Z%C3%BCckert</t>
+          <t>Johann_Friedrich_Zückert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Friedrich Zückert est un médecin allemand né à Berlin le 19 décembre 1737.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Johann_Friedrich_Z%C3%BCckert</t>
+          <t>Johann_Friedrich_Zückert</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commença par suivre la carrière pharmaceutique et travailla pendant quatre années dans la pharmacie royale, ce qui lui fournit l'occasion de lire beaucoup d'ouvrages de physique, de chimie et de médecine, mais sans adopter aucun plan régulier d'études. Ce fut en 1756 que, décidé à exercer l'art médical, il fréquenta l'amphithéâtre anatomique de Berlin, ainsi que l'hôpital de la Charité de la même ville. Deux ans plus tard, il se rendit à l'université de Francfort-sur-l'Oder, où il eut l'avantage d'être le disciple et l'ami de Cartheuser. Après avoir reçu le bonnet de docteur dans cette université, il parcourut diverses parties de l'Allemagne, s'arrêta quelque temps dans le Harz pour étudier l'histoire minéralogique des montagnes qui le forment et revint dans la capitale de la Prusse vers la fin de 1761. L'année suivante, le collège des médecins de cette ville l'admit dans son sein. Faiblement constitué, Zuckert ne put jamais se livrer aux fatigues d'une pratique étendue ; il préféra le travail du cabinet, d'où résultèrent un assez grand nombre d'ouvrages utiles, principalement sous le rapport de la diététique. Il mourut le 1er mai 1778, n'ayant pas encore 41 ans.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Johann_Friedrich_Z%C3%BCckert</t>
+          <t>Johann_Friedrich_Zückert</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Productions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dissertatio anatomico-medica de morbis ex aliéna situ partium thorucis, Francfort-sur-l'Oder, 1760, in-4 ;
 Histoire naturelle et composition minéralogique du Harz supérieur (en all.), Berlin, 1762, in-8 ;
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Johann_Friedrich_Z%C3%BCckert</t>
+          <t>Johann_Friedrich_Zückert</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">« Johann Friedrich Zückert », dans Louis-Gabriel Michaud, Biographie universelle ancienne et moderne : histoire par ordre alphabétique de la vie publique et privée de tous les hommes avec la collaboration de plus de 300 savants et littérateurs français ou étrangers, 2e édition, 1843-1865 [détail de l’édition]
  Portail de la médecine   Portail du XVIIIe siècle   Portail du royaume de Prusse                   </t>
